--- a/data/results_friend_boss.xlsx
+++ b/data/results_friend_boss.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>damage</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Chessia</t>
   </si>
   <si>
+    <t>Dettlaff</t>
+  </si>
+  <si>
     <t>Drow</t>
   </si>
   <si>
@@ -94,6 +97,9 @@
     <t>Nameless_King</t>
   </si>
   <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
     <t>Orphee</t>
   </si>
   <si>
@@ -151,127 +157,133 @@
     <t>Xexanoth</t>
   </si>
   <si>
-    <t>{'Total': 1284245, 'attack': 515184, 'Abyssal Blade': 769061}</t>
-  </si>
-  <si>
-    <t>{'Total': 2944558, 'attack': 1061280, 'Strangle': 1883278}</t>
-  </si>
-  <si>
-    <t>{'Total': 2904062, 'attack': 1658483, 'Power Torture': 1245579}</t>
-  </si>
-  <si>
-    <t>{'Total': 3550455, 'attack': 1167130, 'Toxic Blade': 897652, 'Dual Throwing Axe': 1485673}</t>
-  </si>
-  <si>
-    <t>{'Total': 3051111, 'attack': 871057, 'Black Hole Generated': 2180054}</t>
-  </si>
-  <si>
-    <t>{'Total': 1978328, 'attack': 867773, 'Heart-Taking Thorn': 1110555}</t>
-  </si>
-  <si>
-    <t>{'Total': 1783243, 'attack': 886546, 'Spider Attack': 896697}</t>
-  </si>
-  <si>
-    <t>{'Total': 2009886, 'attack': 952650, 'Hollow Descent': 1057237}</t>
-  </si>
-  <si>
-    <t>{'Total': 1982380, 'attack': 1001338, 'Wheel Of Torture': 981042}</t>
-  </si>
-  <si>
-    <t>{'Total': 1137124, 'attack': 461559, 'Leech Seed': 498507, "Nature's Power": 177058}</t>
-  </si>
-  <si>
-    <t>{'Total': 1528505, 'attack': 691655, 'Soul Pulse': 836850}</t>
-  </si>
-  <si>
-    <t>{'Total': 1638541, 'attack': 695385, 'Blood Axe': 943156}</t>
-  </si>
-  <si>
-    <t>{'Total': 2358099, 'attack': 1195134, 'Throat Blade': 1162965}</t>
-  </si>
-  <si>
-    <t>{'Total': 1230104, 'attack': 579548, 'Shooting Star': 650556}</t>
-  </si>
-  <si>
-    <t>{'Total': 3546928, 'attack': 1269327, 'Eye Of Thunderstorm': 2277601}</t>
-  </si>
-  <si>
-    <t>{'Total': 1633011, 'attack': 791592, 'Hand Of God': 841419}</t>
-  </si>
-  <si>
-    <t>{'Total': 1711741, 'attack': 591515, 'Viper Arrow': 1120226}</t>
-  </si>
-  <si>
-    <t>{'Total': 1418067, 'attack': 595647, 'Sacred Heal': 822420}</t>
-  </si>
-  <si>
-    <t>{'Total': 1078521, 'attack': 587513, 'Fury Swipes': 491008}</t>
-  </si>
-  <si>
-    <t>{'Total': 2670655, 'attack': 588962, 'Cudgel Mastery': 535607, 'Boundless Strike': 1217495, 'Fight Against Buddha': 328592}</t>
-  </si>
-  <si>
-    <t>{'Total': 1230259, 'attack': 576324, 'Gale Cut': 653935}</t>
-  </si>
-  <si>
-    <t>{'Total': 2799087, 'attack': 901266, 'Sign Of Sun': 368128, 'Dragon Sphere': 180514, 'Lightning Storm': 1349180}</t>
-  </si>
-  <si>
-    <t>{'Total': 1920920, 'attack': 856005, 'Starstorm': 1064915}</t>
-  </si>
-  <si>
-    <t>{'Total': 1928836, 'attack': 934187, 'Fatal Wave': 994649}</t>
-  </si>
-  <si>
-    <t>{'Total': 4692084, 'attack': 963843, 'Poison Dagger': 1973326, 'Venom Wind': 1754915}</t>
-  </si>
-  <si>
-    <t>{'Total': 1131763, 'attack': 544238, 'Nightmare': 587525}</t>
-  </si>
-  <si>
-    <t>{'Total': 3272951, 'attack': 934731, 'Flash': 483398, 'Kifuu': 1854822}</t>
-  </si>
-  <si>
-    <t>{'Total': 1505733, 'attack': 583764, 'Whirlwind Of Death': 921968}</t>
-  </si>
-  <si>
-    <t>{'Total': 2841875, 'attack': 653706, 'Poison Touch': 685272, 'Corrosive Skin': 436721, 'Poison Nova': 1066176}</t>
-  </si>
-  <si>
-    <t>{'Total': 752052, 'attack': 344264, 'Tentacle Attack': 407789}</t>
-  </si>
-  <si>
-    <t>{'Total': 1457561, 'attack': 750418, 'Plasma Field': 707143}</t>
-  </si>
-  <si>
-    <t>{'Total': 1880181, 'attack': 453830, 'Shield Breaker': 585096, 'Tiger Attack': 841255}</t>
-  </si>
-  <si>
-    <t>{'Total': 646748, 'attack': 326208, 'Stellar Detonation': 320540}</t>
-  </si>
-  <si>
-    <t>{'Total': 2808693, 'attack': 1078979, 'Gungnir': 1729714}</t>
-  </si>
-  <si>
-    <t>{'Total': 1134423, 'attack': 556045, 'Bipolar Reversal': 578377}</t>
-  </si>
-  <si>
-    <t>{'Total': 2035777, 'attack': 989368, 'Goddess Benison': 724902, 'Inviolability': 321507}</t>
-  </si>
-  <si>
-    <t>{'Total': 578363, 'attack': 249474, 'Cleric Shine': 328889}</t>
-  </si>
-  <si>
-    <t>{'Total': 3216081, 'attack': 892053, 'Cutting Wolf Claw': 2324028}</t>
-  </si>
-  <si>
-    <t>{'Total': 1304967, 'attack': 668186, 'Wolf Claw Sunder': 636781}</t>
-  </si>
-  <si>
-    <t>{'Total': 893929, 'attack': 435167, 'Power Of Hades': 458762}</t>
-  </si>
-  <si>
-    <t>{'Total': 3469990, 'attack': 779917, 'Betrayal Provocation': 2690073}</t>
+    <t>{'Total': 352741, 'attack': 139861, 'Abyssal Blade': 212881}</t>
+  </si>
+  <si>
+    <t>{'Total': 830193, 'attack': 292200, 'Strangle': 537992}</t>
+  </si>
+  <si>
+    <t>{'Total': 790206, 'attack': 450465, 'Power Torture': 339741}</t>
+  </si>
+  <si>
+    <t>{'Total': 991306, 'attack': 323230, 'Dual Throwing Axe': 413538, 'Toxic Blade': 254538}</t>
+  </si>
+  <si>
+    <t>{'Total': 898525, 'attack': 229230, 'Black Hole Generated': 669295}</t>
+  </si>
+  <si>
+    <t>{'Total': 1063582, 'attack': 298366, 'Erode Bone': 202780, 'Dark Omen': 562436}</t>
+  </si>
+  <si>
+    <t>{'Total': 543916, 'attack': 232627, 'Heart-Taking Thorn': 311290}</t>
+  </si>
+  <si>
+    <t>{'Total': 488627, 'attack': 238446, 'Spider Attack': 250181}</t>
+  </si>
+  <si>
+    <t>{'Total': 553985, 'attack': 261386, 'Hollow Descent': 292599}</t>
+  </si>
+  <si>
+    <t>{'Total': 525510, 'attack': 263144, 'Wheel Of Torture': 262366}</t>
+  </si>
+  <si>
+    <t>{'Total': 312142, 'attack': 127414, "Nature's Power": 46014, 'Leech Seed': 138714}</t>
+  </si>
+  <si>
+    <t>{'Total': 413816, 'attack': 184915, 'Soul Pulse': 228901}</t>
+  </si>
+  <si>
+    <t>{'Total': 457556, 'attack': 191061, 'Blood Axe': 266495}</t>
+  </si>
+  <si>
+    <t>{'Total': 624082, 'attack': 313434, 'Throat Blade': 310649}</t>
+  </si>
+  <si>
+    <t>{'Total': 343242, 'attack': 158718, 'Shooting Star': 184524}</t>
+  </si>
+  <si>
+    <t>{'Total': 679538, 'attack': 237902, 'Eye Of Thunderstorm': 441636}</t>
+  </si>
+  <si>
+    <t>{'Total': 447838, 'attack': 217366, 'Hand Of God': 230471}</t>
+  </si>
+  <si>
+    <t>{'Total': 483220, 'attack': 169590, 'Viper Arrow': 313630}</t>
+  </si>
+  <si>
+    <t>{'Total': 382194, 'attack': 159110, 'Sacred Heal': 223084}</t>
+  </si>
+  <si>
+    <t>{'Total': 299751, 'attack': 162012, 'Fury Swipes': 137739}</t>
+  </si>
+  <si>
+    <t>{'Total': 721544, 'attack': 158714, 'Cudgel Mastery': 147402, 'Boundless Strike': 328712, 'Fight Against Buddha': 86716}</t>
+  </si>
+  <si>
+    <t>{'Total': 348051, 'attack': 161269, 'Gale Cut': 186782}</t>
+  </si>
+  <si>
+    <t>{'Total': 699478, 'attack': 223625, 'Sign Of Sun': 91758, 'Lightning Storm': 341116, 'Dragon Sphere': 42979}</t>
+  </si>
+  <si>
+    <t>{'Total': 751825, 'attack': 214343, 'Breathing Hot': 238346, 'Red Lotus Fire': 299137}</t>
+  </si>
+  <si>
+    <t>{'Total': 518505, 'attack': 229986, 'Starstorm': 288519}</t>
+  </si>
+  <si>
+    <t>{'Total': 521007, 'attack': 249362, 'Fatal Wave': 271644}</t>
+  </si>
+  <si>
+    <t>{'Total': 1274480, 'attack': 257652, 'Poison Dagger': 531920, 'Venom Wind': 484908}</t>
+  </si>
+  <si>
+    <t>{'Total': 304617, 'attack': 145597, 'Nightmare': 159021}</t>
+  </si>
+  <si>
+    <t>{'Total': 906125, 'attack': 262103, 'Flash': 136513, 'Kifuu': 507509}</t>
+  </si>
+  <si>
+    <t>{'Total': 422876, 'attack': 162085, 'Whirlwind Of Death': 260791}</t>
+  </si>
+  <si>
+    <t>{'Total': 798792, 'attack': 176725, 'Poison Touch': 208630, 'Poison Nova': 289811, 'Corrosive Skin': 123626}</t>
+  </si>
+  <si>
+    <t>{'Total': 207611, 'attack': 101035, 'Tentacle Attack': 106576}</t>
+  </si>
+  <si>
+    <t>{'Total': 399543, 'attack': 205661, 'Plasma Field': 193882}</t>
+  </si>
+  <si>
+    <t>{'Total': 525366, 'attack': 125297, 'Shield Breaker': 164801, 'Tiger Attack': 235268}</t>
+  </si>
+  <si>
+    <t>{'Total': 181106, 'attack': 89965, 'Stellar Detonation': 91140}</t>
+  </si>
+  <si>
+    <t>{'Total': 783713, 'attack': 297262, 'Gungnir': 486452}</t>
+  </si>
+  <si>
+    <t>{'Total': 309017, 'attack': 149976, 'Bipolar Reversal': 159041}</t>
+  </si>
+  <si>
+    <t>{'Total': 444066, 'attack': 211818, 'Goddess Benison': 168729, 'Inviolability': 63520}</t>
+  </si>
+  <si>
+    <t>{'Total': 158803, 'attack': 69629, 'Cleric Shine': 89174}</t>
+  </si>
+  <si>
+    <t>{'Total': 853326, 'attack': 231789, 'Cutting Wolf Claw': 621537}</t>
+  </si>
+  <si>
+    <t>{'Total': 365126, 'attack': 183905, 'Wolf Claw Sunder': 181222}</t>
+  </si>
+  <si>
+    <t>{'Total': 244713, 'attack': 118591, 'Power Of Hades': 126122}</t>
+  </si>
+  <si>
+    <t>{'Total': 920148, 'attack': 203979, 'Betrayal Provocation': 716169}</t>
   </si>
 </sst>
 </file>
@@ -629,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,16 +666,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>9524257</v>
+        <v>2586643</v>
       </c>
       <c r="C2">
-        <v>-42</v>
+        <v>-33</v>
       </c>
       <c r="D2">
-        <v>1284245</v>
+        <v>352741</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -671,16 +683,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>11178809</v>
+        <v>3076542</v>
       </c>
       <c r="C3">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D3">
-        <v>2944558</v>
+        <v>830193</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -688,16 +700,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11107042</v>
+        <v>3022340</v>
       </c>
       <c r="C4">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D4">
-        <v>2904062</v>
+        <v>790206</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -705,16 +717,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>11803959</v>
+        <v>3231709</v>
       </c>
       <c r="C5">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D5">
-        <v>3550455</v>
+        <v>991306</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -722,16 +734,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>11268218</v>
+        <v>3136745</v>
       </c>
       <c r="C6">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6">
-        <v>3051111</v>
+        <v>898525</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -739,16 +751,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>10173405</v>
+        <v>3306099</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="D7">
-        <v>1978328</v>
+        <v>1063582</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -756,16 +768,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>10038650</v>
+        <v>2771810</v>
       </c>
       <c r="C8">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>1783243</v>
+        <v>543916</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -773,16 +785,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>10151701</v>
+        <v>2715440</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="D9">
-        <v>2009886</v>
+        <v>488627</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -790,16 +802,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>10214445</v>
+        <v>2777786</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>1982380</v>
+        <v>553985</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -807,16 +819,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>9579069</v>
+        <v>2764034</v>
       </c>
       <c r="C11">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1137124</v>
+        <v>525510</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -824,16 +836,16 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>10026810</v>
+        <v>2617352</v>
       </c>
       <c r="C12">
-        <v>-8</v>
+        <v>-27</v>
       </c>
       <c r="D12">
-        <v>1528505</v>
+        <v>312142</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -841,16 +853,16 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>9825272</v>
+        <v>2713384</v>
       </c>
       <c r="C13">
-        <v>-22</v>
+        <v>-9</v>
       </c>
       <c r="D13">
-        <v>1638541</v>
+        <v>413816</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -858,16 +870,16 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>10583707</v>
+        <v>2686328</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>-15</v>
       </c>
       <c r="D14">
-        <v>2358099</v>
+        <v>457556</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -875,16 +887,16 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>9443908</v>
+        <v>2871400</v>
       </c>
       <c r="C15">
-        <v>-47</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>1230104</v>
+        <v>624082</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -892,16 +904,16 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>11728381</v>
+        <v>2569551</v>
       </c>
       <c r="C16">
-        <v>105</v>
+        <v>-39</v>
       </c>
       <c r="D16">
-        <v>3546928</v>
+        <v>343242</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -909,16 +921,16 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>9840459</v>
+        <v>2909202</v>
       </c>
       <c r="C17">
-        <v>-21</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>1633011</v>
+        <v>679538</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -926,16 +938,16 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>9913789</v>
+        <v>2675579</v>
       </c>
       <c r="C18">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="D18">
-        <v>1711741</v>
+        <v>447838</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -943,16 +955,16 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>9635528</v>
+        <v>2717698</v>
       </c>
       <c r="C19">
-        <v>-34</v>
+        <v>-9</v>
       </c>
       <c r="D19">
-        <v>1418067</v>
+        <v>483220</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -960,16 +972,16 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>9325955</v>
+        <v>2595491</v>
       </c>
       <c r="C20">
-        <v>-55</v>
+        <v>-33</v>
       </c>
       <c r="D20">
-        <v>1078521</v>
+        <v>382194</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -977,16 +989,16 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>10825620</v>
+        <v>2524679</v>
       </c>
       <c r="C21">
-        <v>45</v>
+        <v>-48</v>
       </c>
       <c r="D21">
-        <v>2670655</v>
+        <v>299751</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -994,16 +1006,16 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>9461146</v>
+        <v>2941216</v>
       </c>
       <c r="C22">
-        <v>-46</v>
+        <v>36</v>
       </c>
       <c r="D22">
-        <v>1230259</v>
+        <v>721544</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1011,16 +1023,16 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>10995819</v>
+        <v>2582862</v>
       </c>
       <c r="C23">
-        <v>56</v>
+        <v>-36</v>
       </c>
       <c r="D23">
-        <v>2799087</v>
+        <v>348051</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1028,16 +1040,16 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>10205843</v>
+        <v>2921828</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>1920920</v>
+        <v>699478</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1045,16 +1057,16 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>10173306</v>
+        <v>3994704</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>246</v>
       </c>
       <c r="D25">
-        <v>1928836</v>
+        <v>751825</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1062,16 +1074,16 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>12954757</v>
+        <v>2744061</v>
       </c>
       <c r="C26">
-        <v>187</v>
+        <v>-3</v>
       </c>
       <c r="D26">
-        <v>4692084</v>
+        <v>518505</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1079,16 +1091,16 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>9357996</v>
+        <v>2757410</v>
       </c>
       <c r="C27">
-        <v>-53</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>1131763</v>
+        <v>521007</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1096,16 +1108,16 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>11530694</v>
+        <v>3509291</v>
       </c>
       <c r="C28">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="D28">
-        <v>3272951</v>
+        <v>1274480</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1113,16 +1125,16 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>9722644</v>
+        <v>2532437</v>
       </c>
       <c r="C29">
-        <v>-29</v>
+        <v>-45</v>
       </c>
       <c r="D29">
-        <v>1505733</v>
+        <v>304617</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1130,16 +1142,16 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>11115507</v>
+        <v>3155881</v>
       </c>
       <c r="C30">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D30">
-        <v>2841875</v>
+        <v>906125</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1147,16 +1159,16 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>8923852</v>
+        <v>2661982</v>
       </c>
       <c r="C31">
-        <v>-82</v>
+        <v>-18</v>
       </c>
       <c r="D31">
-        <v>752052</v>
+        <v>422876</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1164,16 +1176,16 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>9694118</v>
+        <v>3044562</v>
       </c>
       <c r="C32">
-        <v>-31</v>
+        <v>57</v>
       </c>
       <c r="D32">
-        <v>1457561</v>
+        <v>798792</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1181,16 +1193,16 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>10085938</v>
+        <v>2418144</v>
       </c>
       <c r="C33">
-        <v>-4</v>
+        <v>-69</v>
       </c>
       <c r="D33">
-        <v>1880181</v>
+        <v>207611</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1198,16 +1210,16 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>9378509</v>
+        <v>2642733</v>
       </c>
       <c r="C34">
-        <v>-52</v>
+        <v>-24</v>
       </c>
       <c r="D34">
-        <v>646748</v>
+        <v>399543</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1215,16 +1227,16 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>11047702</v>
+        <v>2744495</v>
       </c>
       <c r="C35">
-        <v>60</v>
+        <v>-3</v>
       </c>
       <c r="D35">
-        <v>2808693</v>
+        <v>525366</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1232,16 +1244,16 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>9323746</v>
+        <v>2526710</v>
       </c>
       <c r="C36">
-        <v>-55</v>
+        <v>-45</v>
       </c>
       <c r="D36">
-        <v>1134423</v>
+        <v>181106</v>
       </c>
       <c r="E36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1249,16 +1261,16 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>11548444</v>
+        <v>3013143</v>
       </c>
       <c r="C37">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D37">
-        <v>2035777</v>
+        <v>783713</v>
       </c>
       <c r="E37" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1266,16 +1278,16 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>8815076</v>
+        <v>2531176</v>
       </c>
       <c r="C38">
-        <v>-89</v>
+        <v>-45</v>
       </c>
       <c r="D38">
-        <v>578363</v>
+        <v>309017</v>
       </c>
       <c r="E38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1283,16 +1295,16 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>11466134</v>
+        <v>2955312</v>
       </c>
       <c r="C39">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="D39">
-        <v>3216081</v>
+        <v>444066</v>
       </c>
       <c r="E39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1300,16 +1312,16 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>10482827</v>
+        <v>2390885</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>-72</v>
       </c>
       <c r="D40">
-        <v>1304967</v>
+        <v>158803</v>
       </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1317,16 +1329,16 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>9072688</v>
+        <v>3088103</v>
       </c>
       <c r="C41">
-        <v>-72</v>
+        <v>66</v>
       </c>
       <c r="D41">
-        <v>893929</v>
+        <v>853326</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1334,16 +1346,50 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>12055775</v>
+        <v>2844847</v>
       </c>
       <c r="C42">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="D42">
-        <v>3469990</v>
+        <v>365126</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>2466908</v>
+      </c>
+      <c r="C43">
+        <v>-57</v>
+      </c>
+      <c r="D43">
+        <v>244713</v>
+      </c>
+      <c r="E43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>3251466</v>
+      </c>
+      <c r="C44">
+        <v>99</v>
+      </c>
+      <c r="D44">
+        <v>920148</v>
+      </c>
+      <c r="E44" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/data/results_friend_boss.xlsx
+++ b/data/results_friend_boss.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>damage</t>
   </si>
@@ -124,6 +124,9 @@
     <t>Shudde_M'ell</t>
   </si>
   <si>
+    <t>Skuld</t>
+  </si>
+  <si>
     <t>Tesla</t>
   </si>
   <si>
@@ -157,133 +160,136 @@
     <t>Xexanoth</t>
   </si>
   <si>
-    <t>{'Total': 352741, 'attack': 139861, 'Abyssal Blade': 212881}</t>
-  </si>
-  <si>
-    <t>{'Total': 830193, 'attack': 292200, 'Strangle': 537992}</t>
-  </si>
-  <si>
-    <t>{'Total': 790206, 'attack': 450465, 'Power Torture': 339741}</t>
-  </si>
-  <si>
-    <t>{'Total': 991306, 'attack': 323230, 'Dual Throwing Axe': 413538, 'Toxic Blade': 254538}</t>
-  </si>
-  <si>
-    <t>{'Total': 898525, 'attack': 229230, 'Black Hole Generated': 669295}</t>
-  </si>
-  <si>
-    <t>{'Total': 1063582, 'attack': 298366, 'Erode Bone': 202780, 'Dark Omen': 562436}</t>
-  </si>
-  <si>
-    <t>{'Total': 543916, 'attack': 232627, 'Heart-Taking Thorn': 311290}</t>
-  </si>
-  <si>
-    <t>{'Total': 488627, 'attack': 238446, 'Spider Attack': 250181}</t>
-  </si>
-  <si>
-    <t>{'Total': 553985, 'attack': 261386, 'Hollow Descent': 292599}</t>
-  </si>
-  <si>
-    <t>{'Total': 525510, 'attack': 263144, 'Wheel Of Torture': 262366}</t>
-  </si>
-  <si>
-    <t>{'Total': 312142, 'attack': 127414, "Nature's Power": 46014, 'Leech Seed': 138714}</t>
-  </si>
-  <si>
-    <t>{'Total': 413816, 'attack': 184915, 'Soul Pulse': 228901}</t>
-  </si>
-  <si>
-    <t>{'Total': 457556, 'attack': 191061, 'Blood Axe': 266495}</t>
-  </si>
-  <si>
-    <t>{'Total': 624082, 'attack': 313434, 'Throat Blade': 310649}</t>
-  </si>
-  <si>
-    <t>{'Total': 343242, 'attack': 158718, 'Shooting Star': 184524}</t>
-  </si>
-  <si>
-    <t>{'Total': 679538, 'attack': 237902, 'Eye Of Thunderstorm': 441636}</t>
-  </si>
-  <si>
-    <t>{'Total': 447838, 'attack': 217366, 'Hand Of God': 230471}</t>
-  </si>
-  <si>
-    <t>{'Total': 483220, 'attack': 169590, 'Viper Arrow': 313630}</t>
-  </si>
-  <si>
-    <t>{'Total': 382194, 'attack': 159110, 'Sacred Heal': 223084}</t>
-  </si>
-  <si>
-    <t>{'Total': 299751, 'attack': 162012, 'Fury Swipes': 137739}</t>
-  </si>
-  <si>
-    <t>{'Total': 721544, 'attack': 158714, 'Cudgel Mastery': 147402, 'Boundless Strike': 328712, 'Fight Against Buddha': 86716}</t>
-  </si>
-  <si>
-    <t>{'Total': 348051, 'attack': 161269, 'Gale Cut': 186782}</t>
-  </si>
-  <si>
-    <t>{'Total': 699478, 'attack': 223625, 'Sign Of Sun': 91758, 'Lightning Storm': 341116, 'Dragon Sphere': 42979}</t>
-  </si>
-  <si>
-    <t>{'Total': 751825, 'attack': 214343, 'Breathing Hot': 238346, 'Red Lotus Fire': 299137}</t>
-  </si>
-  <si>
-    <t>{'Total': 518505, 'attack': 229986, 'Starstorm': 288519}</t>
-  </si>
-  <si>
-    <t>{'Total': 521007, 'attack': 249362, 'Fatal Wave': 271644}</t>
-  </si>
-  <si>
-    <t>{'Total': 1274480, 'attack': 257652, 'Poison Dagger': 531920, 'Venom Wind': 484908}</t>
-  </si>
-  <si>
-    <t>{'Total': 304617, 'attack': 145597, 'Nightmare': 159021}</t>
-  </si>
-  <si>
-    <t>{'Total': 906125, 'attack': 262103, 'Flash': 136513, 'Kifuu': 507509}</t>
-  </si>
-  <si>
-    <t>{'Total': 422876, 'attack': 162085, 'Whirlwind Of Death': 260791}</t>
-  </si>
-  <si>
-    <t>{'Total': 798792, 'attack': 176725, 'Poison Touch': 208630, 'Poison Nova': 289811, 'Corrosive Skin': 123626}</t>
-  </si>
-  <si>
-    <t>{'Total': 207611, 'attack': 101035, 'Tentacle Attack': 106576}</t>
-  </si>
-  <si>
-    <t>{'Total': 399543, 'attack': 205661, 'Plasma Field': 193882}</t>
-  </si>
-  <si>
-    <t>{'Total': 525366, 'attack': 125297, 'Shield Breaker': 164801, 'Tiger Attack': 235268}</t>
-  </si>
-  <si>
-    <t>{'Total': 181106, 'attack': 89965, 'Stellar Detonation': 91140}</t>
-  </si>
-  <si>
-    <t>{'Total': 783713, 'attack': 297262, 'Gungnir': 486452}</t>
-  </si>
-  <si>
-    <t>{'Total': 309017, 'attack': 149976, 'Bipolar Reversal': 159041}</t>
-  </si>
-  <si>
-    <t>{'Total': 444066, 'attack': 211818, 'Goddess Benison': 168729, 'Inviolability': 63520}</t>
-  </si>
-  <si>
-    <t>{'Total': 158803, 'attack': 69629, 'Cleric Shine': 89174}</t>
-  </si>
-  <si>
-    <t>{'Total': 853326, 'attack': 231789, 'Cutting Wolf Claw': 621537}</t>
-  </si>
-  <si>
-    <t>{'Total': 365126, 'attack': 183905, 'Wolf Claw Sunder': 181222}</t>
-  </si>
-  <si>
-    <t>{'Total': 244713, 'attack': 118591, 'Power Of Hades': 126122}</t>
-  </si>
-  <si>
-    <t>{'Total': 920148, 'attack': 203979, 'Betrayal Provocation': 716169}</t>
+    <t>{'Total': 375805, 'attack': 152106, 'Abyssal Blade': 223699}</t>
+  </si>
+  <si>
+    <t>{'Total': 861031, 'attack': 308827, 'Strangle': 552205}</t>
+  </si>
+  <si>
+    <t>{'Total': 861142, 'attack': 487477, 'Power Torture': 373665}</t>
+  </si>
+  <si>
+    <t>{'Total': 1089077, 'attack': 352959, 'Dual Throwing Axe': 444833, 'Toxic Blade': 291285}</t>
+  </si>
+  <si>
+    <t>{'Total': 949026, 'attack': 251582, 'Black Hole Generated': 697444}</t>
+  </si>
+  <si>
+    <t>{'Total': 1124337, 'attack': 316887, 'Erode Bone': 213150, 'Dark Omen': 594299}</t>
+  </si>
+  <si>
+    <t>{'Total': 568410, 'attack': 246447, 'Heart-Taking Thorn': 321963}</t>
+  </si>
+  <si>
+    <t>{'Total': 524040, 'attack': 256787, 'Spider Attack': 267253}</t>
+  </si>
+  <si>
+    <t>{'Total': 607079, 'attack': 284974, 'Hollow Descent': 322104}</t>
+  </si>
+  <si>
+    <t>{'Total': 590566, 'attack': 293824, 'Wheel Of Torture': 296742}</t>
+  </si>
+  <si>
+    <t>{'Total': 310748, 'attack': 137697, 'Leech Seed': 151727, "Nature's Power": 21324}</t>
+  </si>
+  <si>
+    <t>{'Total': 455899, 'attack': 202844, 'Soul Pulse': 253055}</t>
+  </si>
+  <si>
+    <t>{'Total': 491953, 'attack': 204840, 'Blood Axe': 287113}</t>
+  </si>
+  <si>
+    <t>{'Total': 676126, 'attack': 340259, 'Throat Blade': 335867}</t>
+  </si>
+  <si>
+    <t>{'Total': 368822, 'attack': 173639, 'Shooting Star': 195183}</t>
+  </si>
+  <si>
+    <t>{'Total': 1024769, 'attack': 362763, 'Eye Of Thunderstorm': 662006}</t>
+  </si>
+  <si>
+    <t>{'Total': 479644, 'attack': 233615, 'Hand Of God': 246029}</t>
+  </si>
+  <si>
+    <t>{'Total': 513605, 'attack': 183060, 'Viper Arrow': 330546}</t>
+  </si>
+  <si>
+    <t>{'Total': 412130, 'attack': 173556, 'Sacred Heal': 238573}</t>
+  </si>
+  <si>
+    <t>{'Total': 321464, 'attack': 175177, 'Fury Swipes': 146288}</t>
+  </si>
+  <si>
+    <t>{'Total': 770497, 'attack': 172295, 'Cudgel Mastery': 154814, 'Boundless Strike': 352509, 'Fight Against Buddha': 90878}</t>
+  </si>
+  <si>
+    <t>{'Total': 372336, 'attack': 173748, 'Gale Cut': 198588}</t>
+  </si>
+  <si>
+    <t>{'Total': 844804, 'attack': 275874, 'Sign Of Sun': 108403, 'Lightning Storm': 408368, 'Dragon Sphere': 52158}</t>
+  </si>
+  <si>
+    <t>{'Total': 795660, 'attack': 230642, 'Breathing Hot': 253502, 'Red Lotus Fire': 311516}</t>
+  </si>
+  <si>
+    <t>{'Total': 560391, 'attack': 248205, 'Starstorm': 312185}</t>
+  </si>
+  <si>
+    <t>{'Total': 570378, 'attack': 273842, 'Fatal Wave': 296536}</t>
+  </si>
+  <si>
+    <t>{'Total': 1359942, 'attack': 280884, 'Poison Dagger': 564219, 'Venom Wind': 514839}</t>
+  </si>
+  <si>
+    <t>{'Total': 333919, 'attack': 159465, 'Nightmare': 174454}</t>
+  </si>
+  <si>
+    <t>{'Total': 987992, 'attack': 287412, 'Flash': 145725, 'Kifuu': 554856}</t>
+  </si>
+  <si>
+    <t>{'Total': 460812, 'attack': 177435, 'Whirlwind Of Death': 283378}</t>
+  </si>
+  <si>
+    <t>{'Total': 850583, 'attack': 191521, 'Poison Touch': 221791, 'Corrosive Skin': 126477, 'Poison Nova': 310793}</t>
+  </si>
+  <si>
+    <t>{'Total': 218078, 'attack': 107080, 'Tentacle Attack': 110997}</t>
+  </si>
+  <si>
+    <t>{'Total': 361596, 'attack': 219538, 'Divine Revelation': 142058}</t>
+  </si>
+  <si>
+    <t>{'Total': 432065, 'attack': 223222, 'Plasma Field': 208843}</t>
+  </si>
+  <si>
+    <t>{'Total': 557059, 'attack': 135435, 'Shield Breaker': 173192, 'Tiger Attack': 248432}</t>
+  </si>
+  <si>
+    <t>{'Total': 191664, 'attack': 97319, 'Stellar Detonation': 94345}</t>
+  </si>
+  <si>
+    <t>{'Total': 843981, 'attack': 322160, 'Gungnir': 521820}</t>
+  </si>
+  <si>
+    <t>{'Total': 335439, 'attack': 164666, 'Bipolar Reversal': 170773}</t>
+  </si>
+  <si>
+    <t>{'Total': 580499, 'attack': 281670, 'Goddess Benison': 212028, 'Inviolability': 86801}</t>
+  </si>
+  <si>
+    <t>{'Total': 172555, 'attack': 76228, 'Cleric Shine': 96328}</t>
+  </si>
+  <si>
+    <t>{'Total': 928186, 'attack': 251692, 'Cutting Wolf Claw': 676494}</t>
+  </si>
+  <si>
+    <t>{'Total': 397147, 'attack': 200780, 'Wolf Claw Sunder': 196367}</t>
+  </si>
+  <si>
+    <t>{'Total': 315365, 'attack': 153762, 'Power Of Hades': 161602}</t>
+  </si>
+  <si>
+    <t>{'Total': 1014936, 'attack': 225329, 'Betrayal Provocation': 789608}</t>
   </si>
 </sst>
 </file>
@@ -641,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,16 +672,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2586643</v>
+        <v>2711093</v>
       </c>
       <c r="C2">
-        <v>-33</v>
+        <v>-38</v>
       </c>
       <c r="D2">
-        <v>352741</v>
+        <v>375805</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -683,16 +689,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>3076542</v>
+        <v>3200682</v>
       </c>
       <c r="C3">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>830193</v>
+        <v>861031</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -700,16 +706,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3022340</v>
+        <v>3185537</v>
       </c>
       <c r="C4">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D4">
-        <v>790206</v>
+        <v>861142</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -717,16 +723,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>3231709</v>
+        <v>3426585</v>
       </c>
       <c r="C5">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D5">
-        <v>991306</v>
+        <v>1089077</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -734,16 +740,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>3136745</v>
+        <v>3287062</v>
       </c>
       <c r="C6">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D6">
-        <v>898525</v>
+        <v>949026</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -751,16 +757,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>3306099</v>
+        <v>3481079</v>
       </c>
       <c r="C7">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D7">
-        <v>1063582</v>
+        <v>1124337</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -768,16 +774,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>2771810</v>
+        <v>2898265</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>543916</v>
+        <v>568410</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -785,16 +791,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>2715440</v>
+        <v>2863062</v>
       </c>
       <c r="C9">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="D9">
-        <v>488627</v>
+        <v>524040</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -802,16 +808,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>2777786</v>
+        <v>2909748</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>553985</v>
+        <v>607079</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -819,16 +825,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>2764034</v>
+        <v>2918753</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>525510</v>
+        <v>590566</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -836,16 +842,16 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>2617352</v>
+        <v>2726958</v>
       </c>
       <c r="C12">
-        <v>-27</v>
+        <v>-35</v>
       </c>
       <c r="D12">
-        <v>312142</v>
+        <v>310748</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -853,16 +859,16 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>2713384</v>
+        <v>2858303</v>
       </c>
       <c r="C13">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="D13">
-        <v>413816</v>
+        <v>455899</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -870,16 +876,16 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>2686328</v>
+        <v>2812496</v>
       </c>
       <c r="C14">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="D14">
-        <v>457556</v>
+        <v>491953</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -887,16 +893,16 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>2871400</v>
+        <v>3020449</v>
       </c>
       <c r="C15">
         <v>24</v>
       </c>
       <c r="D15">
-        <v>624082</v>
+        <v>676126</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -904,16 +910,16 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>2569551</v>
+        <v>2697352</v>
       </c>
       <c r="C16">
-        <v>-39</v>
+        <v>-41</v>
       </c>
       <c r="D16">
-        <v>343242</v>
+        <v>368822</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -921,16 +927,16 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>2909202</v>
+        <v>3358030</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="D17">
-        <v>679538</v>
+        <v>1024769</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -938,16 +944,16 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>2675579</v>
+        <v>2816498</v>
       </c>
       <c r="C18">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="D18">
-        <v>447838</v>
+        <v>479644</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -955,16 +961,16 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>2717698</v>
+        <v>2862078</v>
       </c>
       <c r="C19">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="D19">
-        <v>483220</v>
+        <v>513605</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -972,16 +978,16 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>2595491</v>
+        <v>2742422</v>
       </c>
       <c r="C20">
-        <v>-33</v>
+        <v>-32</v>
       </c>
       <c r="D20">
-        <v>382194</v>
+        <v>412130</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -989,16 +995,16 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>2524679</v>
+        <v>2656086</v>
       </c>
       <c r="C21">
-        <v>-48</v>
+        <v>-49</v>
       </c>
       <c r="D21">
-        <v>299751</v>
+        <v>321464</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1006,16 +1012,16 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>2941216</v>
+        <v>3092097</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D22">
-        <v>721544</v>
+        <v>770497</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1023,16 +1029,16 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>2582862</v>
+        <v>2707640</v>
       </c>
       <c r="C23">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="D23">
-        <v>348051</v>
+        <v>372336</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1040,16 +1046,16 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>2921828</v>
+        <v>3236522</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D24">
-        <v>699478</v>
+        <v>844804</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1057,16 +1063,16 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>3994704</v>
+        <v>4174349</v>
       </c>
       <c r="C25">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D25">
-        <v>751825</v>
+        <v>795660</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1074,16 +1080,16 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>2744061</v>
+        <v>2889254</v>
       </c>
       <c r="C26">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D26">
-        <v>518505</v>
+        <v>560391</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1091,16 +1097,16 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>2757410</v>
+        <v>2902074</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>521007</v>
+        <v>570378</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1108,16 +1114,16 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>3509291</v>
+        <v>3691371</v>
       </c>
       <c r="C28">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D28">
-        <v>1274480</v>
+        <v>1359942</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1125,16 +1131,16 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>2532437</v>
+        <v>2649302</v>
       </c>
       <c r="C29">
-        <v>-45</v>
+        <v>-50</v>
       </c>
       <c r="D29">
-        <v>304617</v>
+        <v>333919</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1142,16 +1148,16 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>3155881</v>
+        <v>3324871</v>
       </c>
       <c r="C30">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D30">
-        <v>906125</v>
+        <v>987992</v>
       </c>
       <c r="E30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1159,16 +1165,16 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>2661982</v>
+        <v>2789063</v>
       </c>
       <c r="C31">
-        <v>-18</v>
+        <v>-22</v>
       </c>
       <c r="D31">
-        <v>422876</v>
+        <v>460812</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1176,16 +1182,16 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>3044562</v>
+        <v>3186066</v>
       </c>
       <c r="C32">
         <v>57</v>
       </c>
       <c r="D32">
-        <v>798792</v>
+        <v>850583</v>
       </c>
       <c r="E32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1193,16 +1199,16 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>2418144</v>
+        <v>2534799</v>
       </c>
       <c r="C33">
-        <v>-69</v>
+        <v>-73</v>
       </c>
       <c r="D33">
-        <v>207611</v>
+        <v>218078</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1210,16 +1216,16 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>2642733</v>
+        <v>3319716</v>
       </c>
       <c r="C34">
-        <v>-24</v>
+        <v>84</v>
       </c>
       <c r="D34">
-        <v>399543</v>
+        <v>361596</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1227,16 +1233,16 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>2744495</v>
+        <v>2773910</v>
       </c>
       <c r="C35">
-        <v>-3</v>
+        <v>-25</v>
       </c>
       <c r="D35">
-        <v>525366</v>
+        <v>432065</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1244,16 +1250,16 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>2526710</v>
+        <v>2887673</v>
       </c>
       <c r="C36">
-        <v>-45</v>
+        <v>-2</v>
       </c>
       <c r="D36">
-        <v>181106</v>
+        <v>557059</v>
       </c>
       <c r="E36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1261,16 +1267,16 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>3013143</v>
+        <v>2644936</v>
       </c>
       <c r="C37">
-        <v>51</v>
+        <v>-51</v>
       </c>
       <c r="D37">
-        <v>783713</v>
+        <v>191664</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1278,16 +1284,16 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>2531176</v>
+        <v>3174530</v>
       </c>
       <c r="C38">
-        <v>-45</v>
+        <v>55</v>
       </c>
       <c r="D38">
-        <v>309017</v>
+        <v>843981</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1295,16 +1301,16 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>2955312</v>
+        <v>2653505</v>
       </c>
       <c r="C39">
-        <v>39</v>
+        <v>-49</v>
       </c>
       <c r="D39">
-        <v>444066</v>
+        <v>335439</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1312,16 +1318,16 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>2390885</v>
+        <v>3252545</v>
       </c>
       <c r="C40">
-        <v>-72</v>
+        <v>70</v>
       </c>
       <c r="D40">
-        <v>158803</v>
+        <v>580499</v>
       </c>
       <c r="E40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1329,16 +1335,16 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>3088103</v>
+        <v>2500666</v>
       </c>
       <c r="C41">
-        <v>66</v>
+        <v>-80</v>
       </c>
       <c r="D41">
-        <v>853326</v>
+        <v>172555</v>
       </c>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1346,16 +1352,16 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>2844847</v>
+        <v>3276299</v>
       </c>
       <c r="C42">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="D42">
-        <v>365126</v>
+        <v>928186</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1363,16 +1369,16 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>2466908</v>
+        <v>2986530</v>
       </c>
       <c r="C43">
-        <v>-57</v>
+        <v>17</v>
       </c>
       <c r="D43">
-        <v>244713</v>
+        <v>397147</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1380,16 +1386,33 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>3251466</v>
+        <v>2639471</v>
       </c>
       <c r="C44">
-        <v>99</v>
+        <v>-52</v>
       </c>
       <c r="D44">
-        <v>920148</v>
+        <v>315365</v>
       </c>
       <c r="E44" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>3451203</v>
+      </c>
+      <c r="C45">
+        <v>110</v>
+      </c>
+      <c r="D45">
+        <v>1014936</v>
+      </c>
+      <c r="E45" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
